--- a/Data_clean/MCAS/Estados_US/Edos_USA_2012/MISSISSIPPI_2012.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2012/MISSISSIPPI_2012.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Rincon De Romos</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Champoton</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Hopelchen</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Chanal</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Chicomuselo</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Cintalapa</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Comitan De Dominguez</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Huehuetan</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Juarez</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>La Grandeza</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -790,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Larrainzar</t>
@@ -803,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -816,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Las Rosas</t>
@@ -829,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -842,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -855,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -868,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Ostuacan</t>
@@ -881,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -894,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Pichucalco</t>
@@ -907,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -920,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Reforma</t>
@@ -933,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>San Cristobal De Las Casas</t>
@@ -946,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -959,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Simojovel</t>
@@ -972,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Socoltenango</t>
@@ -985,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -998,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Sunuapa</t>
@@ -1011,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -1024,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Tecpatan</t>
@@ -1037,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Totolapa</t>
@@ -1050,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -1063,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Tuxtla Gutierrez</t>
@@ -1076,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tuzantan</t>
@@ -1089,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tzimol</t>
@@ -1102,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Villa Comaltitlan</t>
@@ -1115,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -1128,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -1141,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1172,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -1185,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -1198,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -1211,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -1224,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Gomez Farias</t>
@@ -1237,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -1250,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -1263,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Jimenez</t>
@@ -1276,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Juarez</t>
@@ -1289,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -1302,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>San Francisco De Borja</t>
@@ -1315,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Santa Barbara</t>
@@ -1328,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1359,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -1372,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Cuatrocienegas</t>
@@ -1385,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -1398,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -1411,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Muzquiz</t>
@@ -1424,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Nava</t>
@@ -1437,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -1450,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -1463,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>San Buenaventura</t>
@@ -1476,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1489,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Torreon</t>
@@ -1502,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1533,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Tecoman</t>
@@ -1546,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1577,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1590,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -1603,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Coyoacan</t>
@@ -1616,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -1629,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -1642,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1655,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1668,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1681,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1694,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -1707,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Tlahuac</t>
@@ -1720,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1733,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1746,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1777,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1790,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Gomez Palacio</t>
@@ -1803,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -1816,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Nazas</t>
@@ -1829,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Panuco De Coronado</t>
@@ -1842,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>San Juan De Guadalupe</t>
@@ -1855,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Santiago Papasquiaro</t>
@@ -1868,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Tlahualilo</t>
@@ -1881,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1912,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -1925,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -1938,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Apaseo El Grande</t>
@@ -1951,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Atarjea</t>
@@ -1964,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1977,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -1990,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Cueramaro</t>
@@ -2003,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -2016,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Dolores Hidalgo</t>
@@ -2029,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -2042,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -2055,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -2068,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Jerecuaro</t>
@@ -2081,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -2094,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -2107,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Moroleon</t>
@@ -2120,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -2133,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Penjamo</t>
@@ -2146,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -2159,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>San Diego De La Union</t>
@@ -2172,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -2185,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>San Francisco Del Rincon</t>
@@ -2198,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>San Jose Iturbide</t>
@@ -2211,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -2224,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Santa Catarina</t>
@@ -2237,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -2250,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -2263,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -2276,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -2289,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Villagran</t>
@@ -2302,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Xichu</t>
@@ -2315,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2346,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Ajuchitlan Del Progreso</t>
@@ -2359,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Alcozauca De Guerrero</t>
@@ -2372,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -2385,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Atoyac De Alvarez</t>
@@ -2398,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -2411,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -2424,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Coyuca De Benitez</t>
@@ -2437,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -2450,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -2463,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -2476,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Ixcateopan De Cuauhtemoc</t>
@@ -2489,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -2502,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>La Union De Isidoro Montes De Oca</t>
@@ -2515,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -2528,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -2541,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Metlatonoc</t>
@@ -2554,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Petatlan</t>
@@ -2567,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>San Luis Acatlan</t>
@@ -2580,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -2593,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -2606,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Tecpan De Galeana</t>
@@ -2619,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -2632,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Tetipac</t>
@@ -2645,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -2658,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -2671,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -2684,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Xochistlahuaca</t>
@@ -2697,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2728,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -2741,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Alfajayucan</t>
@@ -2754,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Atlapexco</t>
@@ -2767,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Cardonal</t>
@@ -2780,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Chapulhuacan</t>
@@ -2793,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Cuautepec De Hinojosa</t>
@@ -2806,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>El Arenal</t>
@@ -2819,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Eloxochitlan</t>
@@ -2832,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -2845,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Huazalingo</t>
@@ -2858,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -2871,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Huejutla De Reyes</t>
@@ -2884,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -2897,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -2910,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Jacala De Ledezma</t>
@@ -2923,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Jaltocan</t>
@@ -2936,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>La Mision</t>
@@ -2949,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Lolotla</t>
@@ -2962,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -2975,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Metztitlan</t>
@@ -2988,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Nicolas Flores</t>
@@ -3001,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -3014,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Pacula</t>
@@ -3027,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Progreso De Obregon</t>
@@ -3040,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Tasquillo</t>
@@ -3053,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -3066,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -3079,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Tepeji Del Rio De Ocampo</t>
@@ -3092,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Tianguistengo</t>
@@ -3105,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -3118,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Tlanchinol</t>
@@ -3131,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -3144,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Xochicoatlan</t>
@@ -3157,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Zacualtipan De Angeles</t>
@@ -3170,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3201,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Autlan De Navarro</t>
@@ -3214,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Ayotlan</t>
@@ -3227,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -3240,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Chiquilistlan</t>
@@ -3253,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -3266,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>El Grullo</t>
@@ -3279,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -3292,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Jesus Maria</t>
@@ -3305,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Jilotlan De Los Dolores</t>
@@ -3318,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -3331,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -3344,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -3357,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Mezquitic</t>
@@ -3370,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -3383,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -3396,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>San Juanito De Escobedo</t>
@@ -3409,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>San Sebastian Del Oeste</t>
@@ -3422,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Santa Maria Del Oro</t>
@@ -3435,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -3448,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -3461,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -3474,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Tepatitlan De Morelos</t>
@@ -3487,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -3500,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Tizapan El Alto</t>
@@ -3513,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Tlajomulco De Zuñiga</t>
@@ -3526,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Tototlan</t>
@@ -3539,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Yahualica De Gonzalez Gallo</t>
@@ -3552,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -3565,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -3578,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3609,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Acolman</t>
@@ -3622,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Aculco</t>
@@ -3635,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Almoloya De Alquisiras</t>
@@ -3648,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -3661,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Atizapan De Zaragoza</t>
@@ -3674,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Atlautla</t>
@@ -3687,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Axapusco</t>
@@ -3700,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -3713,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Chimalhuacan</t>
@@ -3726,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Coacalco De Berriozabal</t>
@@ -3739,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -3752,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -3765,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -3778,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Jiquipilco</t>
@@ -3791,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -3804,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Melchor Ocampo</t>
@@ -3817,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -3830,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Naucalpan De Juarez</t>
@@ -3843,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -3856,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Nicolas Romero</t>
@@ -3869,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Ocuilan</t>
@@ -3882,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Otumba</t>
@@ -3895,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -3908,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>San Mateo Atenco</t>
@@ -3921,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -3934,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Tecamac</t>
@@ -3947,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -3960,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Temascalapa</t>
@@ -3973,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -3986,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Teotihuacan</t>
@@ -3999,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Tlalmanalco</t>
@@ -4012,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -4025,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -4038,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Tultepec</t>
@@ -4051,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Villa De Allende</t>
@@ -4064,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -4077,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4108,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Arteaga</t>
@@ -4121,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Buenavista</t>
@@ -4134,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Caracuaro</t>
@@ -4147,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Charo</t>
@@ -4160,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Cheran</t>
@@ -4173,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -4186,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Cotija</t>
@@ -4199,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Ecuandureo</t>
@@ -4212,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -4225,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -4238,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -4251,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Irimbo</t>
@@ -4264,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -4277,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -4290,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -4303,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Lazaro Cardenas</t>
@@ -4316,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -4329,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Madero</t>
@@ -4342,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Maravatio</t>
@@ -4355,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -4368,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Mugica</t>
@@ -4381,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Nahuatzen</t>
@@ -4394,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Nuevo Urecho</t>
@@ -4407,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Paracuaro</t>
@@ -4420,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Patzcuaro</t>
@@ -4433,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Periban</t>
@@ -4446,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Puruandiro</t>
@@ -4459,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Tacambaro</t>
@@ -4472,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Tancitaro</t>
@@ -4485,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Tangancicuaro</t>
@@ -4498,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Tumbiscatio</t>
@@ -4511,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -4524,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -4537,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -4550,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -4563,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -4576,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Zitacuaro</t>
@@ -4589,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4620,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Atlatlahucan</t>
@@ -4633,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -4646,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -4659,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -4672,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Tlaltizapan</t>
@@ -4685,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Xochitepec</t>
@@ -4698,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -4711,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Yecapixtla</t>
@@ -4724,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Zacatepec De Hidalgo</t>
@@ -4737,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4768,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Ixtlan Del Rio</t>
@@ -4781,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -4794,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -4807,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -4820,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -4833,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4864,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Linares</t>
@@ -4877,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Montemorelos</t>
@@ -4890,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -4903,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>San Nicolas De Los Garza</t>
@@ -4916,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4947,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Asuncion Nochixtlan</t>
@@ -4960,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Chalcatongo De Hidalgo</t>
@@ -4973,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Ciudad Ixtepec</t>
@@ -4986,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Coatecas Altas</t>
@@ -4999,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -5012,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Guevea De Humboldt</t>
@@ -5025,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -5038,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Ixtlan De Juarez</t>
@@ -5051,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Juchitan De Zaragoza</t>
@@ -5064,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Martires De Tacubaya</t>
@@ -5077,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Miahuatlan De Porfirio Diaz</t>
@@ -5090,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -5103,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -5116,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>San Agustin Chayuco</t>
@@ -5129,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>San Bartolo Coyotepec</t>
@@ -5142,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>San Carlos Yautepec</t>
@@ -5155,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>San Dionisio Ocotepec</t>
@@ -5168,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>San Felipe Jalapa De Diaz</t>
@@ -5181,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>San Felipe Usila</t>
@@ -5194,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>San Francisco Cahuacua</t>
@@ -5207,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>San Jeronimo Coatlan</t>
@@ -5220,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -5233,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>San Juan Bautista Valle Nacional</t>
@@ -5246,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>San Juan Guichicovi</t>
@@ -5259,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>San Juan Quiahije</t>
@@ -5272,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>San Martin Huamelulpam</t>
@@ -5285,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>San Martin Lachila</t>
@@ -5298,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>San Miguel Amatitlan</t>
@@ -5311,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>San Miguel Panixtlahuaca</t>
@@ -5324,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -5337,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>San Simon Almolongas</t>
@@ -5350,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Santa Catarina Loxicha</t>
@@ -5363,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Santa Cruz Tacahua</t>
@@ -5376,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Santa Maria Colotepec</t>
@@ -5389,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Santa Maria Tlalixtac</t>
@@ -5402,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Santa Maria Zoquitlan</t>
@@ -5415,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -5428,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -5441,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -5454,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -5467,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Santo Domingo Petapa</t>
@@ -5480,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -5493,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Silacayoapam</t>
@@ -5506,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -5519,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -5532,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Zimatlan De Alvarez</t>
@@ -5545,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5576,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>Altepexi</t>
@@ -5589,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>Caltepec</t>
@@ -5602,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -5615,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Coxcatlan</t>
@@ -5628,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>Cuyoaco</t>
@@ -5641,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -5654,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -5667,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -5680,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Izucar De Matamoros</t>
@@ -5693,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Jalpan</t>
@@ -5706,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Los Reyes De Juarez</t>
@@ -5719,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Naupan</t>
@@ -5732,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Palmar De Bravo</t>
@@ -5745,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -5758,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -5771,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Rafael Lara Grajales</t>
@@ -5784,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>San Martin Texmelucan</t>
@@ -5797,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>San Salvador El Seco</t>
@@ -5810,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Tehuacan</t>
@@ -5823,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -5836,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Teopantlan</t>
@@ -5849,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -5862,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>Teziutlan</t>
@@ -5875,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>Tlacuilotepec</t>
@@ -5888,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Tlaola</t>
@@ -5901,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>Tlapacoya</t>
@@ -5914,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -5927,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -5940,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -5953,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Xochiltepec</t>
@@ -5966,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -5979,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Zacatlan</t>
@@ -5992,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>Zihuateutla</t>
@@ -6005,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6036,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -6049,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>El Marques</t>
@@ -6062,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Huimilpan</t>
@@ -6075,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -6088,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -6101,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Queretaro</t>
@@ -6114,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>San Joaquin</t>
@@ -6127,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6158,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6189,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Aquismon</t>
@@ -6202,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Cardenas</t>
@@ -6215,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Cedral</t>
@@ -6228,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Cerritos</t>
@@ -6241,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Ciudad Del Maiz</t>
@@ -6254,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Ciudad Fernandez</t>
@@ -6267,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -6280,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -6293,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Guadalcazar</t>
@@ -6306,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -6319,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -6332,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Rayon</t>
@@ -6345,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -6358,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -6371,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>San Ciro De Acosta</t>
@@ -6384,6 +8534,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>San Luis Potosi</t>
@@ -6397,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>San Vicente Tancuayalab</t>
@@ -6410,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Santa Catarina</t>
@@ -6423,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Santa Maria Del Rio</t>
@@ -6436,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -6449,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -6462,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -6475,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Tamuin</t>
@@ -6488,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Tancanhuitz</t>
@@ -6501,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Tanlajas</t>
@@ -6514,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Tanquian De Escobedo</t>
@@ -6527,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Tierra Nueva</t>
@@ -6540,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Villa De Arriaga</t>
@@ -6553,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -6566,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Villa De Reyes</t>
@@ -6579,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -6592,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Villa Juarez</t>
@@ -6605,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -6618,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -6631,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6662,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Culiacan</t>
@@ -6675,6 +8930,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -6688,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6719,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>Ures</t>
@@ -6732,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6763,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Cardenas</t>
@@ -6776,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -6789,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Cunduacan</t>
@@ -6802,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -6815,6 +9110,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>Macuspana</t>
@@ -6828,6 +9128,11 @@
       </c>
     </row>
     <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
           <t>Tacotalpa</t>
@@ -6841,6 +9146,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>Tenosique</t>
@@ -6854,6 +9164,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6885,6 +9200,11 @@
       </c>
     </row>
     <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B492" t="inlineStr">
         <is>
           <t>Antiguo Morelos</t>
@@ -6898,6 +9218,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>Bustamante</t>
@@ -6911,6 +9236,11 @@
       </c>
     </row>
     <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B494" t="inlineStr">
         <is>
           <t>Ciudad Madero</t>
@@ -6924,6 +9254,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -6937,6 +9272,11 @@
       </c>
     </row>
     <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>Gonzalez</t>
@@ -6950,6 +9290,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -6963,6 +9308,11 @@
       </c>
     </row>
     <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -6976,6 +9326,11 @@
       </c>
     </row>
     <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -6989,6 +9344,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>Nuevo Morelos</t>
@@ -7002,6 +9362,11 @@
       </c>
     </row>
     <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -7015,6 +9380,11 @@
       </c>
     </row>
     <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
           <t>Padilla</t>
@@ -7028,6 +9398,11 @@
       </c>
     </row>
     <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -7041,6 +9416,11 @@
       </c>
     </row>
     <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
           <t>Rio Bravo</t>
@@ -7054,6 +9434,11 @@
       </c>
     </row>
     <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
           <t>San Fernando</t>
@@ -7067,6 +9452,11 @@
       </c>
     </row>
     <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B506" t="inlineStr">
         <is>
           <t>Soto La Marina</t>
@@ -7080,6 +9470,11 @@
       </c>
     </row>
     <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B507" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -7093,6 +9488,11 @@
       </c>
     </row>
     <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B508" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -7106,6 +9506,11 @@
       </c>
     </row>
     <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
           <t>Valle Hermoso</t>
@@ -7119,6 +9524,11 @@
       </c>
     </row>
     <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -7132,6 +9542,11 @@
       </c>
     </row>
     <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
           <t>Xicotencatl</t>
@@ -7145,6 +9560,11 @@
       </c>
     </row>
     <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B512" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7176,6 +9596,11 @@
       </c>
     </row>
     <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -7189,6 +9614,11 @@
       </c>
     </row>
     <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
           <t>Ixtacuixtla De Mariano Matamoros</t>
@@ -7202,6 +9632,11 @@
       </c>
     </row>
     <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B516" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -7215,6 +9650,11 @@
       </c>
     </row>
     <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B517" t="inlineStr">
         <is>
           <t>Yauhquemecan</t>
@@ -7228,6 +9668,11 @@
       </c>
     </row>
     <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B518" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -7241,6 +9686,11 @@
       </c>
     </row>
     <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B519" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7272,6 +9722,11 @@
       </c>
     </row>
     <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B521" t="inlineStr">
         <is>
           <t>Alto Lucero De Gutierrez Barrios</t>
@@ -7285,6 +9740,11 @@
       </c>
     </row>
     <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B522" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -7298,6 +9758,11 @@
       </c>
     </row>
     <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B523" t="inlineStr">
         <is>
           <t>Angel R. Cabada</t>
@@ -7311,6 +9776,11 @@
       </c>
     </row>
     <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B524" t="inlineStr">
         <is>
           <t>Atlahuilco</t>
@@ -7324,6 +9794,11 @@
       </c>
     </row>
     <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B525" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -7337,6 +9812,11 @@
       </c>
     </row>
     <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B526" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -7350,6 +9830,11 @@
       </c>
     </row>
     <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B527" t="inlineStr">
         <is>
           <t>Boca Del Rio</t>
@@ -7363,6 +9848,11 @@
       </c>
     </row>
     <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B528" t="inlineStr">
         <is>
           <t>Castillo De Teayo</t>
@@ -7376,6 +9866,11 @@
       </c>
     </row>
     <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B529" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -7389,6 +9884,11 @@
       </c>
     </row>
     <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B530" t="inlineStr">
         <is>
           <t>Chicontepec</t>
@@ -7402,6 +9902,11 @@
       </c>
     </row>
     <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B531" t="inlineStr">
         <is>
           <t>Chocaman</t>
@@ -7415,6 +9920,11 @@
       </c>
     </row>
     <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B532" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -7428,6 +9938,11 @@
       </c>
     </row>
     <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B533" t="inlineStr">
         <is>
           <t>Cordoba</t>
@@ -7441,6 +9956,11 @@
       </c>
     </row>
     <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B534" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -7454,6 +9974,11 @@
       </c>
     </row>
     <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B535" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -7467,6 +9992,11 @@
       </c>
     </row>
     <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B536" t="inlineStr">
         <is>
           <t>Cosoleacaque</t>
@@ -7480,6 +10010,11 @@
       </c>
     </row>
     <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B537" t="inlineStr">
         <is>
           <t>Cotaxtla</t>
@@ -7493,6 +10028,11 @@
       </c>
     </row>
     <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B538" t="inlineStr">
         <is>
           <t>Coyutla</t>
@@ -7506,6 +10046,11 @@
       </c>
     </row>
     <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B539" t="inlineStr">
         <is>
           <t>Cuichapa</t>
@@ -7519,6 +10064,11 @@
       </c>
     </row>
     <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B540" t="inlineStr">
         <is>
           <t>Cuitlahuac</t>
@@ -7532,6 +10082,11 @@
       </c>
     </row>
     <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B541" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -7545,6 +10100,11 @@
       </c>
     </row>
     <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B542" t="inlineStr">
         <is>
           <t>Hidalgotitlan</t>
@@ -7558,6 +10118,11 @@
       </c>
     </row>
     <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B543" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -7571,6 +10136,11 @@
       </c>
     </row>
     <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -7584,6 +10154,11 @@
       </c>
     </row>
     <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B545" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -7597,6 +10172,11 @@
       </c>
     </row>
     <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B546" t="inlineStr">
         <is>
           <t>Ixmatlahuacan</t>
@@ -7610,6 +10190,11 @@
       </c>
     </row>
     <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B547" t="inlineStr">
         <is>
           <t>Ixtaczoquitlan</t>
@@ -7623,6 +10208,11 @@
       </c>
     </row>
     <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B548" t="inlineStr">
         <is>
           <t>Jalacingo</t>
@@ -7636,6 +10226,11 @@
       </c>
     </row>
     <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B549" t="inlineStr">
         <is>
           <t>Jaltipan</t>
@@ -7649,6 +10244,11 @@
       </c>
     </row>
     <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B550" t="inlineStr">
         <is>
           <t>Jesus Carranza</t>
@@ -7662,6 +10262,11 @@
       </c>
     </row>
     <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B551" t="inlineStr">
         <is>
           <t>Juchique De Ferrer</t>
@@ -7675,6 +10280,11 @@
       </c>
     </row>
     <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B552" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -7688,6 +10298,11 @@
       </c>
     </row>
     <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B553" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -7701,6 +10316,11 @@
       </c>
     </row>
     <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B554" t="inlineStr">
         <is>
           <t>Las Vigas De Ramirez</t>
@@ -7714,6 +10334,11 @@
       </c>
     </row>
     <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B555" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -7727,6 +10352,11 @@
       </c>
     </row>
     <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B556" t="inlineStr">
         <is>
           <t>Mariano Escobedo</t>
@@ -7740,6 +10370,11 @@
       </c>
     </row>
     <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B557" t="inlineStr">
         <is>
           <t>Martinez De La Torre</t>
@@ -7753,6 +10388,11 @@
       </c>
     </row>
     <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B558" t="inlineStr">
         <is>
           <t>Mecayapan</t>
@@ -7766,6 +10406,11 @@
       </c>
     </row>
     <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B559" t="inlineStr">
         <is>
           <t>Minatitlan</t>
@@ -7779,6 +10424,11 @@
       </c>
     </row>
     <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B560" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -7792,6 +10442,11 @@
       </c>
     </row>
     <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B561" t="inlineStr">
         <is>
           <t>Naranjal</t>
@@ -7805,6 +10460,11 @@
       </c>
     </row>
     <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B562" t="inlineStr">
         <is>
           <t>Nautla</t>
@@ -7818,6 +10478,11 @@
       </c>
     </row>
     <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B563" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -7831,6 +10496,11 @@
       </c>
     </row>
     <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B564" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -7844,6 +10514,11 @@
       </c>
     </row>
     <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B565" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -7857,6 +10532,11 @@
       </c>
     </row>
     <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B566" t="inlineStr">
         <is>
           <t>Ozuluama De Mascareñas</t>
@@ -7870,6 +10550,11 @@
       </c>
     </row>
     <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B567" t="inlineStr">
         <is>
           <t>Panuco</t>
@@ -7883,6 +10568,11 @@
       </c>
     </row>
     <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B568" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -7896,6 +10586,11 @@
       </c>
     </row>
     <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B569" t="inlineStr">
         <is>
           <t>Perote</t>
@@ -7909,6 +10604,11 @@
       </c>
     </row>
     <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B570" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -7922,6 +10622,11 @@
       </c>
     </row>
     <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B571" t="inlineStr">
         <is>
           <t>Pueblo Viejo</t>
@@ -7935,6 +10640,11 @@
       </c>
     </row>
     <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B572" t="inlineStr">
         <is>
           <t>Puente Nacional</t>
@@ -7948,6 +10658,11 @@
       </c>
     </row>
     <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B573" t="inlineStr">
         <is>
           <t>Rio Blanco</t>
@@ -7961,6 +10676,11 @@
       </c>
     </row>
     <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B574" t="inlineStr">
         <is>
           <t>San Andres Tuxtla</t>
@@ -7974,6 +10694,11 @@
       </c>
     </row>
     <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B575" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -7987,6 +10712,11 @@
       </c>
     </row>
     <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B576" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -8000,6 +10730,11 @@
       </c>
     </row>
     <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B577" t="inlineStr">
         <is>
           <t>Sayula De Aleman</t>
@@ -8013,6 +10748,11 @@
       </c>
     </row>
     <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B578" t="inlineStr">
         <is>
           <t>Soledad Atzompa</t>
@@ -8026,6 +10766,11 @@
       </c>
     </row>
     <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B579" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -8039,6 +10784,11 @@
       </c>
     </row>
     <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B580" t="inlineStr">
         <is>
           <t>Soteapan</t>
@@ -8052,6 +10802,11 @@
       </c>
     </row>
     <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B581" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -8065,6 +10820,11 @@
       </c>
     </row>
     <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B582" t="inlineStr">
         <is>
           <t>Tatatila</t>
@@ -8078,6 +10838,11 @@
       </c>
     </row>
     <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B583" t="inlineStr">
         <is>
           <t>Tecolutla</t>
@@ -8091,6 +10856,11 @@
       </c>
     </row>
     <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B584" t="inlineStr">
         <is>
           <t>Tehuipango</t>
@@ -8104,6 +10874,11 @@
       </c>
     </row>
     <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B585" t="inlineStr">
         <is>
           <t>Temapache</t>
@@ -8117,6 +10892,11 @@
       </c>
     </row>
     <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B586" t="inlineStr">
         <is>
           <t>Tempoal</t>
@@ -8130,6 +10910,11 @@
       </c>
     </row>
     <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B587" t="inlineStr">
         <is>
           <t>Teocelo</t>
@@ -8143,6 +10928,11 @@
       </c>
     </row>
     <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B588" t="inlineStr">
         <is>
           <t>Tepetlan</t>
@@ -8156,6 +10946,11 @@
       </c>
     </row>
     <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B589" t="inlineStr">
         <is>
           <t>Texistepec</t>
@@ -8169,6 +10964,11 @@
       </c>
     </row>
     <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B590" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -8182,6 +10982,11 @@
       </c>
     </row>
     <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B591" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -8195,6 +11000,11 @@
       </c>
     </row>
     <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B592" t="inlineStr">
         <is>
           <t>Tlaltetela</t>
@@ -8208,6 +11018,11 @@
       </c>
     </row>
     <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B593" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -8221,6 +11036,11 @@
       </c>
     </row>
     <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B594" t="inlineStr">
         <is>
           <t>Tuxpam</t>
@@ -8234,6 +11054,11 @@
       </c>
     </row>
     <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B595" t="inlineStr">
         <is>
           <t>Tuxtilla</t>
@@ -8247,6 +11072,11 @@
       </c>
     </row>
     <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B596" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -8260,6 +11090,11 @@
       </c>
     </row>
     <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B597" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -8273,6 +11108,11 @@
       </c>
     </row>
     <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B598" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -8286,6 +11126,11 @@
       </c>
     </row>
     <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B599" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -8299,6 +11144,11 @@
       </c>
     </row>
     <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B600" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8330,6 +11180,11 @@
       </c>
     </row>
     <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B602" t="inlineStr">
         <is>
           <t>General Enrique Estrada</t>
@@ -8343,6 +11198,11 @@
       </c>
     </row>
     <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B603" t="inlineStr">
         <is>
           <t>General Francisco R. Murguia</t>
@@ -8356,6 +11216,11 @@
       </c>
     </row>
     <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B604" t="inlineStr">
         <is>
           <t>General Panfilo Natera</t>
@@ -8369,6 +11234,11 @@
       </c>
     </row>
     <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B605" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -8382,6 +11252,11 @@
       </c>
     </row>
     <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B606" t="inlineStr">
         <is>
           <t>Huanusco</t>
@@ -8395,6 +11270,11 @@
       </c>
     </row>
     <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B607" t="inlineStr">
         <is>
           <t>Jalpa</t>
@@ -8408,6 +11288,11 @@
       </c>
     </row>
     <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B608" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -8421,6 +11306,11 @@
       </c>
     </row>
     <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B609" t="inlineStr">
         <is>
           <t>Nochistlan De Mejia</t>
@@ -8434,6 +11324,11 @@
       </c>
     </row>
     <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B610" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -8447,6 +11342,11 @@
       </c>
     </row>
     <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B611" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -8460,6 +11360,11 @@
       </c>
     </row>
     <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B612" t="inlineStr">
         <is>
           <t>Rio Grande</t>
@@ -8473,6 +11378,11 @@
       </c>
     </row>
     <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B613" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -8486,6 +11396,11 @@
       </c>
     </row>
     <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B614" t="inlineStr">
         <is>
           <t>Valparaiso</t>
@@ -8499,6 +11414,11 @@
       </c>
     </row>
     <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B615" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -8512,6 +11432,11 @@
       </c>
     </row>
     <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B616" t="inlineStr">
         <is>
           <t>Total</t>
